--- a/doc/전체화면(김태석)/요구사항명세서(김태석).xlsx
+++ b/doc/전체화면(김태석)/요구사항명세서(김태석).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\WarDron\doc\전체화면(김태석)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\github\WarDron\doc\전체화면(김태석)\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5FC728-68E5-47C0-ABFB-08F8A1300BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="21795" windowHeight="12975"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,12 +177,6 @@
   <si>
     <t>드론을 선택하여 게임에 적용
 빨강, 파란, 노랑, 초록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본값 빨강드론
-드론 선택 시 선택표시
-게임시작 시 선택된 드론 적용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -253,11 +237,17 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>기본값 빨간드론
+드론 선택 시 선택표시
+게임시작 시 선택된 드론 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -656,7 +646,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
@@ -767,7 +757,10 @@
         <v>31</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -785,10 +778,13 @@
         <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>34</v>
+      <c r="G6" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -811,6 +807,9 @@
       <c r="F7" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="G7" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -831,6 +830,9 @@
       </c>
       <c r="F8" s="2" t="s">
         <v>28</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="H8" s="2"/>
     </row>
